--- a/doc/法宝设计.xlsx
+++ b/doc/法宝设计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>费用相关</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,10 @@
   </si>
   <si>
     <t>？不会再遇到战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得xx金钱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:C37"/>
+  <dimension ref="B3:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -494,6 +498,11 @@
     <row r="37" spans="2:3">
       <c r="C37" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="C38" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/doc/法宝设计.xlsx
+++ b/doc/法宝设计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>费用相关</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,59 @@
   <si>
     <t>获得xx金钱</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>番天印</t>
+  </si>
+  <si>
+    <t xml:space="preserve">五火七禽扇 </t>
+  </si>
+  <si>
+    <t>一回合内出5张攻击牌 额外造成7点群体伤害</t>
+  </si>
+  <si>
+    <t>护脏符印</t>
+  </si>
+  <si>
+    <t>柴胡草</t>
+  </si>
+  <si>
+    <t>不会中毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乾坤圈</t>
+  </si>
+  <si>
+    <t>每10回合获得一回合的力量+5</t>
+  </si>
+  <si>
+    <t>风火轮</t>
+  </si>
+  <si>
+    <t>每5回合获得一回合的 敏捷+3</t>
+  </si>
+  <si>
+    <t>召唤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红葫芦</t>
+  </si>
+  <si>
+    <t>损失生命超过10点后召唤出铁嘴神鹰助阵 有效3次</t>
+  </si>
+  <si>
+    <t>八卦云光帕</t>
+  </si>
+  <si>
+    <t>损失15点生命后召唤出黄巾力士助阵</t>
+  </si>
+  <si>
+    <t xml:space="preserve">轩辕剑 </t>
+  </si>
+  <si>
+    <t>不同修为获得不同力量加成</t>
   </si>
 </sst>
 </file>
@@ -429,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:C38"/>
+  <dimension ref="B3:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -446,6 +499,9 @@
       </c>
     </row>
     <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -455,13 +511,37 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="1" t="s">
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
-      <c r="C10" t="s">
+    <row r="12" spans="2:3">
+      <c r="C12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -481,8 +561,19 @@
       </c>
     </row>
     <row r="26" spans="2:3">
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
       <c r="C26" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -490,18 +581,47 @@
         <v>4</v>
       </c>
     </row>
+    <row r="32" spans="2:3">
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
-      <c r="C37" t="s">
+    <row r="44" spans="2:3">
+      <c r="C44" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
-      <c r="C38" t="s">
+    <row r="45" spans="2:3">
+      <c r="C45" t="s">
         <v>12</v>
       </c>
     </row>

--- a/doc/法宝设计.xlsx
+++ b/doc/法宝设计.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CardDoc\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12330"/>
+    <workbookView minimized="1" xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,8 +78,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +146,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -187,7 +200,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,9 +232,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,6 +267,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -428,79 +443,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C37" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -512,12 +527,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -525,12 +540,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/法宝设计.xlsx
+++ b/doc/法宝设计.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CardDoc\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12330"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>费用相关</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,61 +78,95 @@
     <t>番天印</t>
   </si>
   <si>
+    <t>一回合内出5张攻击牌 额外造成7点群体伤害</t>
+  </si>
+  <si>
+    <t>柴胡草</t>
+  </si>
+  <si>
+    <t>不会中毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乾坤圈</t>
+  </si>
+  <si>
+    <t>每10回合获得一回合的力量+5</t>
+  </si>
+  <si>
+    <t>风火轮</t>
+  </si>
+  <si>
+    <t>每5回合获得一回合的 敏捷+3</t>
+  </si>
+  <si>
+    <t>召唤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红葫芦</t>
+  </si>
+  <si>
+    <t>损失生命超过10点后召唤出铁嘴神鹰助阵 有效3次</t>
+  </si>
+  <si>
+    <t>八卦云光帕</t>
+  </si>
+  <si>
+    <t>损失15点生命后召唤出黄巾力士助阵</t>
+  </si>
+  <si>
+    <t xml:space="preserve">轩辕剑 </t>
+  </si>
+  <si>
+    <t>不同修为获得不同力量加成</t>
+  </si>
+  <si>
+    <t>血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法宝无法被封印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血上限+6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血上限+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">五火七禽扇 </t>
-  </si>
-  <si>
-    <t>一回合内出5张攻击牌 额外造成7点群体伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五金壶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血精石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>护脏符印</t>
-  </si>
-  <si>
-    <t>柴胡草</t>
-  </si>
-  <si>
-    <t>不会中毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乾坤圈</t>
-  </si>
-  <si>
-    <t>每10回合获得一回合的力量+5</t>
-  </si>
-  <si>
-    <t>风火轮</t>
-  </si>
-  <si>
-    <t>每5回合获得一回合的 敏捷+3</t>
-  </si>
-  <si>
-    <t>召唤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红葫芦</t>
-  </si>
-  <si>
-    <t>损失生命超过10点后召唤出铁嘴神鹰助阵 有效3次</t>
-  </si>
-  <si>
-    <t>八卦云光帕</t>
-  </si>
-  <si>
-    <t>损失15点生命后召唤出黄巾力士助阵</t>
-  </si>
-  <si>
-    <t xml:space="preserve">轩辕剑 </t>
-  </si>
-  <si>
-    <t>不同修为获得不同力量加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以调整地图某两个房间的位置（限次数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +233,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -240,7 +287,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,9 +319,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,6 +354,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -481,148 +530,178 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:C45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:3">
+      <c r="L3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:3">
+      <c r="M4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
         <v>14</v>
       </c>
-      <c r="C32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3">
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
-      <c r="B36" t="s">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
         <v>24</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C44" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C45" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -632,12 +711,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -645,12 +724,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/法宝设计.xlsx
+++ b/doc/法宝设计.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>费用相关</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +159,10 @@
   </si>
   <si>
     <t>可以调整地图某两个房间的位置（限次数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在战斗中逃走（限次数，使用后有负面debuff）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:M46"/>
+  <dimension ref="B3:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -702,6 +706,11 @@
     <row r="46" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C46" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C47" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/doc/法宝设计.xlsx
+++ b/doc/法宝设计.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>费用相关</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +163,14 @@
   </si>
   <si>
     <t>可以在战斗中逃走（限次数，使用后有负面debuff）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1点能量，地图增加迷雾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乾坤袋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:M47"/>
+  <dimension ref="B3:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -629,6 +637,9 @@
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
@@ -711,6 +722,11 @@
     <row r="47" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C47" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/doc/法宝设计.xlsx
+++ b/doc/法宝设计.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>费用相关</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得xx金钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>番天印</t>
   </si>
   <si>
@@ -166,11 +162,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得1点能量，地图增加迷雾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>乾坤袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三色神光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得100金钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合获得1点能量，地图增加迷雾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万年人参</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血上限+15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通钱袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得310金钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七彩宝匣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王甲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:M48"/>
+  <dimension ref="B3:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -559,74 +587,86 @@
         <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="M4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
+      <c r="L8" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
       <c r="L9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.15">
       <c r="L10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="L11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
@@ -638,7 +678,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -651,7 +691,7 @@
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
@@ -659,10 +699,10 @@
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
         <v>15</v>
-      </c>
-      <c r="C27" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.15">
@@ -672,31 +712,31 @@
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" t="s">
         <v>22</v>
-      </c>
-      <c r="C36" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
         <v>24</v>
-      </c>
-      <c r="C37" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.15">
@@ -710,28 +750,40 @@
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
       <c r="C46" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C47" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C48" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C49" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/法宝设计.xlsx
+++ b/doc/法宝设计.xlsx
@@ -9,19 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12330"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="法宝能力" sheetId="1" r:id="rId1"/>
+    <sheet name="法宝名参考" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>费用相关</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,6 +199,264 @@
   <si>
     <t>龙王甲</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.彩云幛:望月崖顶，每到十五月圆，便有一朵紫金色祥云从崖底升起。此云深具灵气，遇见生人便转瞬飞逝。瑶池仙子知其是奇宝，便用法宝将其收服。此紫色祥云，乃地底万年紫玉吸地脉灵气而化。瑶池仙子便将其炼化成精巧的幛，通体泛淡紫金光。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.幻空幛:北冥寺大藏禅师门下一弟子，常在北冥山脊一带采药。某日遇一受伤老熊，便用药草给老熊疗伤。此熊原乃前辈修真高人身旁宠物，修真高人飞天仙去时，曾留下许多法宝供有缘人获得。熊感其救命之恩，遂领其到修真高人仙洞中，将名为幻空幛的法宝相赠。此宝发暗金光芒，形似小伞，边垂丝条。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3冲天幛:相传，大藏禅师年轻时，在机缘下得到一件由上古神匠锻造的兵器，此兵器由神匠九淬真火锻造而成，法力无边，原是神兵刑天手中所舞的干戚，后来随刑天一起不见踪影。此干戚被大藏禅师所得后，便将此干戚以九阳真火炼化成通体金蓝光的冲天幛，颇通灵气。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.水镜幛:　当年天宫动乱，天庭瑶池边一块水镜石，受动乱之气影响，掉落到修真界。后此水镜石被修真界瑶池仙子所得，瑶池仙子将此石辅以天瑶湖底万年寒气加以炼化，便成了一小法宝水镜幛。此法宝呈紫蓝之光，因含天庭之灵气和万年寒气，可做修真各派弟子的防身之宝。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.散魂幛:幽冥地府内的厉鬼魂，常游荡到大荒城骚扰在此处修行的修真者，修真者不堪其骚扰，但又苦于无法驱散，遂向灵尊报告，灵尊取来驱魂石加以自身九阴真火炼成法宝散魂幛，并把此法宝置于幽冥界出口，以震鬼魂。神魔大战后，此宝震飞，幽冥界鬼魂又纷纷骚动涌向大荒。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.五雷合天幛:相传，盘古在开天辟地后，全身幻化为自然中的万物，那把辟开天地的巨斧，也分裂成几块。后来此斧一块碎片在人间几经流转，后被修真界前辈修真高人所得，修真高人遂集四方天雷之火，采地底烈火将此块碎片炼化成法宝五雷合天幛，以怀巨斧当年开天辟地之功。此法宝呈褐金光芒。 </t>
+  </si>
+  <si>
+    <t>7.冰银环:相传蕴含在一块巨石内的冰晶，被一位化外高人磨成了一块六角型的镜子。此镜子为黑色底，有火焰纹路，而且每个角都有火焰在燃烧。因受火炙寒侵，此冰晶所化的镜子——冰银环，便成了一件厉害法宝 .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.金身环:相传，当年精卫鸟衔石填海，后力竭而死。其坚持之心，不悔精神，感动了当时住东海南山上的山神。山神把精卫鸟所衔之石，从深海收起，用仙法将石魂凝聚成一圆环，置于南山之顶以怀精卫。后此环被一修真高人所得，遂将其命名为金身环，通体碧绿，环边嵌有一金色之物，日吸天地之气，夜聚星月之灵。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.玉心环:相传，幽冥池畔有一奇玉。得其者，不仅能提升修为，还有助度劫。无数修真者都曾到此寻找，费尽力气仍无所获，反为幽冥界带来骚动。而此玉已快修炼道成，遂在飞天仙去之际找到灵尊，将玉形留与灵尊，以平修真者寻宝之心。后灵尊感玉之心，将此玉形炼化成法宝玉心环。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.彩云环:相传500年前曾有一奇婴降世，生而能语，项间带一云纹宝环，是为彩云环。众皆以为神童。不想此童仿佛生来受难历练，一生厄运不断，幸而皆能化免，缘皆归功于此环。后此人难尽得道，飞升仙阙，便留此环于世，助有缘之人防身避难。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.天心双环:芷云双子早年曾得一颗南海稀有奇石——天心石，此石内含两颗石心，蕴纳海水灵气。后芷云双子把此石，用自身纯阴真火，日夜连续煅烧七七四十九天，再置于南海海底的地心池内，浸泡九九八十一天后，炼化成法宝——天心双环。此法宝内嵌有两颗色褐红的石心，边呈蓝紫光芒。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.紫云落影环:相传一位高人曾在机缘下，得一上古月影石。此石能聚自然万物之灵气，后其将此石炼成法宝紫云落影环。在其飞天仙去时，知修真界不久将有一场大劫，遂将此法宝留与凤无双，以助以后修真各派弟子修真卫道。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.天蝉纱:传说天蝉是种极为罕见之宝物，只有在玄冥冰原的冰寂深渊中，有缘方可窥见其影。而且此蝉所吐之丝，极为坚韧，蕴含冰雪灵气，是难得奇宝。多年前，南海芷云宫宫主在游历冰原时，曾有幸捕获一只天蝉。后用天蝉所吐之丝，炼成法宝天蝉纱。此法宝呈湖绿光芒。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.呐魂纱:相传北地，曾有一通体粉红之蟒，其所经之处，草木尽枯，鸟兽具死。后一前辈修真高人偶得一上古奇书，内记此蟒内含一呐魂珠，威力甚大，其近旁之物，都会被此珠呐去魂魄和破解此呐魂珠之法。修真高人按古书记载之法，将此蟒除去，并得其体内呐魂珠。后将此珠和千年寒蝉所吐之丝炼成法宝呐魂纱，呈粉红光芒。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.天旋神纱:神魔大战后，凤无双梦见已飞天仙去的天旋师祖在梦中告诫曰，修真界大劫将来临，其作为月神一派的大师姐，肩负修真卫道重任，特将早年在机缘下炼化成的法宝天旋神纱相赠，为修真卫道助一臂之力，凤无双醒来见床边确有一呈金黄光芒的法宝，想起刚梦中所见，知是仙人托梦预警。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.乾坤护命纱:南海芷云宫，奇宝颇多，第一场神魔大战前，芷云宫宫主算出此场大战，乃月神一派必经劫数。为了避免月神一派损伤严重，根基俱损，遂费尽艰辛，从修真界各地采集奇宝，炼就法宝乾坤护命纱，以助芷云宫内的月神在劫难中能把损失减至最低。此法宝，呈粉紫光芒。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.双向屏:原是南海芷云宫内的一块装饰屏风。由芷云宫宫主采海底千年珊瑚之壳，辅以自身真气炼化而成，在第一次神魔大战时，受神魔法气震动，飞离紫云宫而去，散在修真界。后被瑶池仙子所得，遂将其加炼成一件小法宝，发淡绿光芒。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.逆火屏:传说，西南最高之处，曾住一火神，有一次天火侵泄，使西南整片山林被火海吞没，无数生灵被大火吞噬，火神情急之中，聚大地灵气，从水神处取来驭水法石一块，炼成逆火屏，以阻天火之势。此法宝呈红黄光芒，兼具物理防御和法术防御力。后此法宝因机缘遗落到了修真界。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.八面驭风屏:北冥山一带，修真生灵常被一股妖风残害。太乙真君算出，此妖风乃当年杀死的那条巨蟒蛇妖所为，此蛇妖因不甘心多年的修为就此毁掉，便聚怨气化成妖风残杀生灵。太乙真君恶其行为，遂集齐四方灵石，炼化出法宝八面驭风屏，把此妖风收服。此法宝呈屏风状，发紫蓝光，威力颇大。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.五云锁仙屏:每年五月初一，天瑶湖畔，奇峰断崖间总有五色云彩相互盘旋缠绕，此景煞是迷人。仙堡圣姑知此景应是宝物所为，但却总寻不到宝迹，后在睡梦中受仙人指点，知此景乃湖底五色寒玉之气所化，遂用法囊将五色云气收起，云气便一一化成玉形。后圣姑将此五色玉按五行相生相克之法，炼化出法宝五云锁仙屏。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.反影镜:北冥冰原圣湖边，有一奇怪古井，每到月圆夜，水中便反照出各种物影，没人能破解其中玄机。后来一位修真高人在机缘下，窥知乃一宝镜所为。此宝镜名为反影镜，乃前辈修真高人所用，他飞天仙去时，留下赠与后代有缘人。此法宝能聚自然之灵气，形如展开的卷画，边缘有风形装饰物，呈黄绿耀眼光芒。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.黑雨镜:北冥山南一带，有一黑雾萦绕的迷林，不幸走入迷林的人或动物，下场只有死亡。后一仙缘极厚的少女误人此林，无意中发现黑雾是此林中一洞散发出来，进洞寻其根源，便见乃泉水击一石后产生，此石墨黑发亮，便知石乃宝物，此女便是瑶池仙子。后用纯阴真火将此石炼成黑雨镜，发蓝紫光，形如展开的卷画，卷轴末端燃烧着火焰。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.鬼面镜:幽冥河左测，有一块千年巨石，灵尊有次在上打坐，发现石心温热，能驱散四周阴寒之气。感其妙，遂用灵符幻化成无坚不摧的细丝，钻入石心。发现石心中藏着一形如鬼面的镜子，镜面呈淡蓝幽光，边泛暗金色。此镜原乃灵尊祖师用地府奇石所炼，封于石中吸石灵气，待日后遇有缘人方出世。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.天王镜:玄冥冰原圣湖南面，原有一千年冰雪积淀的高峰，峰顶如刀削般尖利，并隐隐有华光闪耀。神魔大战后，因受神魔战气影响，此峰顶冰块碎裂坍塌。一修真高人路过，发现冰层中有一法宝，背面刻有篆体“天王镜”三字，形如镜子，发淡蓝光芒，原乃前辈修真高人所炼化，后置于冰顶吸冰雪灵气，待后世有缘人获得。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.龙王镜:原是南海龙王送与幼女之宝镜。此镜可化光为戾气，伤人于无形，又稍具防身之功，然龙女年幼贪玩，不慎遗失，龙王多方寻找，依然不知去向。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.怒眉宝镜:白眉年轻的时候，有次路过万佛山，在一洞府内，见白骨杂横，阴魂萦绕，后发现此乃一个妖术高深的异派修真妖人所为，其已害死了上百条人命。面对此等妖人，白眉怒颜顿现，遂取飞剑斩杀此妖人，并得到妖人身上的一法宝。后将此法宝加以自身纯阳之气炼化成一法宝怒眉宝镜，因其当时怒颜曾现。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.八角鉴:原是南海天宫中，悬挂的一盏小灯笼，通体紫金色，小巧精致。因日夜伴天宫神君诵经念佛，吸刚阳正气，便成神物，且久有向道之心。神君念其心诚，便令其到修真界助正派修真人士除妖灭魔，积修功德，以便日后成就正果法宝锋利刚阳。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.天锋鉴 :原天庭南门的灯柱上，曾嵌着一构造简单粗旷的神灯，此神灯呈四边形，中间有火焰熊熊燃烧，且中心有个类似心脏形状的物体若隐若现。后在天宫战乱时，离柱而去。此神灯在凡界几经辗转，最后落到修真高人白眉手中。白眉用纯阳真气将其稍加炼化，便成一厉害法宝天峰鉴。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.鬼面鉴:大荒灵尊年轻时所炼化的一件法宝，采大荒地府厉鬼冤魂的怨气，辅以经过阴寒之气浸透千年的不化鬼骨，再用自身的九阴寒气，炼化而成。形如小灯塔，发蓝紫幽光。因集鬼魂怨气，又属阴寒之物，固此法宝带有强烈杀气，邪物不敢近。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.神雷鉴:原是天界雷神身上的一件法器，当年，雷神怒劈一万年巨石妖，妖死，雷神法器也震碎成两半。一半飞到修真界里，被北冥寺一金刚弟子所得。后其用此半片法器，结合北冥天火炼化出法宝神雷鉴，呈金色光芒。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.天音鉴:收藏于北冥寺中的法宝之一。佩戴之人若遭遇攻击，此天音鉴中便会现出经文密语，将攻击抵挡住，保护佩带者。后此宝不知流落何方。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.六阳神火鉴:白眉在得到奇宝六阳烈炎后，感此宝杀孽较重，遂用自身纯阳之气，将六阳烈炎分离成两股，以减少此宝杀孽。分离出的一半稍加炼化，保其本质。另一半辅以天瑶湖北山罕见碧玉，炼成法宝六阳神火鉴，此宝呈黄蓝光芒。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.皓月冰精:玄冥圣湖边巨石，因久吸冰雪灵气，又经圣湖湖水常年蕴养，其石心便慢慢凝聚天地灵气，结成冰晶。经过千百年修炼，在一个皓月当空时，冰晶终于破石而出。白眉当时正在圣湖边，见此宝难得，遂用皓天镜将其收去，稍加炼化即成一奇法宝。此宝形如一弯月，发淡蓝光芒。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.皓天镜:北冥冰原的圣湖深处，曾有一通体晶白之龙。此龙乃是主宰四方风云之神，因一次失职，使人界妖孽横行，生灵涂炭，王母便命其下凡历练，以赎造下之孽，告其遇一须发尽白之人方可重返仙界。这须发尽白之有缘人即白眉。龙感其成全之恩，将口中所含龙珠赠与白眉，白眉用此珠炼化成至宝皓天镜，形呈椭圆，能聚天地灵气，不惧邪物。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.潜龙令:上古洪荒之时，曾出现一恶龙，趁乱嗜杀生民，生民之冤气直冲天庭，王母念民之疾苦，遂派天将持王母的法令牌，下凡界斩杀恶龙。天将在斩杀恶龙时，因法令牌不慎被恶龙震飞，一时又无法分身追回，便使法令牌飞落到修真界里。后法令牌被前辈修真高人所获，因有这段前缘，遂改其名为潜龙令 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.玄冰烈火鼎:玄冥冰原北山顶，曾有一仙人，常采玄冰灵气和各地奇宝炼制仙丹，后仙人返天庭时，把其炼丹之炉，遗留在冰原山顶上。此炉因日久炼制丹药，且常吸奇宝灵气，以非凡品。后此炉被一修真高人所得，遂用九天烈火将此炉炼化成法宝玄冰烈火鼎。此宝形如鼎，呈金黄蓝光。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.银凌仙衣:那年，瑶池仙子偶见一渔民在叫卖一通体泛银光之小鱼，仙子见鱼精巧可爱，遂买下带回天瑶湖放生。入夜便梦见一清丽女子向其谢救命之恩，并道日前所救之鱼乃龙王幼女，因贪玩不慎误入渔网，现被龙王禁足，临别赠仙子一件自身修炼的法宝银凌仙衣，以谢相救之恩。仙子醒后，见床前确有一件银凌仙衣，知梦中乃实。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.贝叶灵符:天瑶湖底曾有一修炼千年的贝母妖，时常幻化成艳丽的女子，残害天瑶湖附近的青年男子。后被一修真高人所斩，得其额中灵珠，并用九阴真火，集水底寒气，炼化成具有一定攻击力和一定防御力的法宝——贝叶灵符。此法宝呈贝叶形状，发蓝色光芒。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.四象宝塔:天刀锋一带，曾被一幽冥地府恶鬼占据，此恶鬼法力高深，且能驱使其它恶鬼为其卖命。一时间，天刀锋鬼影横肆，生灵四散逃逸。灵尊知此恶鬼，原是地府侍卫，因千年前得一书，修习了邪派妖术，性已魔化。遂取四方奇石，按太极的四象之道，加以自身之真气，炼化成法宝四象宝塔，把恶鬼镇压在天刀锋。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.明月金刚目:大藏禅师门下，曾有一金刚弟子，额有三目，虎背熊腰，容貌极威武。特别是其额间第三目，更是能聚星月之灵气。后大藏禅师把其早年机缘下得到的朱雀石，加以九阳真火，炼化成法宝明月金刚目，交予三目金刚弟子使用，此法宝发黄绿光芒。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.九子魂魄 :每年五月，众多虔诚教徒从千里之外赶来北冥寺拜佛求教。那年，北冥第一次五月下罕见大雪，九名教徒活活被雪埋在来寺路中。大藏禅师感他们求佛之心虔诚，遂将他们魂魄集在一块紫红水晶中，置于寺中殿内，终日经佛光普照。后他们九子飞天而去，大藏禅师便将此水晶炼化成小法宝，名为九子魂魄，显紫色光芒。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.紫华炎:第一场神魔大战后，紫云宫受神魔法宝战气影响，宫内地脉泻出南海地底之火。此火威力无穷，所幸被紫云宫宫主收服在法囊内。后紫云宫宫主将此火配以天山紫玉，炼成法宝紫华炎。此法宝呈粉紫光芒，形如燃烧之火焰， </t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.枯炎:相传，天脉火山之火，原是沉睡地底一火龙喷发而出，因火性极烈，使群山寸草不生，鸟兽绝迹。王母见景不佳，便命雷神移来天北极寒之山，来此调和。此山因含一巨大黄玉，故能聚寒气。后此黄玉曾当一仙源极厚的修真高人面出现过，修真高人取其一方碎屑，就地炼成法宝枯炎，此宝发红黄之光 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.七方炎:当年那场神魔大战，触动修真界四方天地，八方神魔。而修真界纳藏之宝物，也受此战影响，或被妖魔窥视，或纷纷欲破土而去。为免修真界宝物因此战受损，大藏禅师取来西天梵火加北冥纯阳之气炼就法宝七方炎，以保护修真界内各方法宝的安全。七方炎呈粉色光芒，形如妖媚火焰。。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.暗阳炎:日食之日，天日无光，四方俱黯，此时却有一点火星自天而降，落于大地，砸下一个大坑。后有修真高人寻到此火石，炼制成可唤天火的小法宝，唤作“暗阳炎”。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.冰离炎:　有一修真高人前往北冥拜访心眼禅师，路遇北崖山顶奇光隐现，生灵尽仓皇躲避，心下好奇，便上山查看。却见一晶莹冰石，内有紫火跳跃，冰石却不化，以为异事。便用宝囊收得此石，带给心眼禅师。禅师遂将此时炼成冰离炎，可召唤天火。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.六阳烈炎:地之东，曾有一善驭火高人，某日，偶发奇想，聚四方之火，再引地府和西天之火，炼成一件奇宝，六阳烈炎。此宝泛金红光芒，具有强大的攻击力，故能用此宝者，必是心怀至善之人。高人飞天仙去时，知此宝乃有其主，遂将此宝留下。后此宝为白眉真人所得，并加以其纯阳之气炼化 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.兜率灵炎:南海深底，曾出现一恶兽，因久吸海底灵动之气，法力渐长，口喷蓝色火焰，肆意杀伤无数修真生灵。一位无名剑仙高人知其乃一种名为兜率的上古怪兽，性嗜血、暴虐，但其口含之珠却是罕见奇宝，便用所炼纯阳飞剑斩其首。得其口中奇珠，后加以本身纯阳之气，把此珠炼化法宝——兜率灵炎，形如火焰，发纯蓝光 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.斗魔真炎:第一次神魔大战时，大藏禅师为抵抗血魔鬼军所炼的法宝。取地底万年纯阴之火，在北冥极地，借西天梵火，口诵七字真言，以自身纯阳之气持续炼化四个九天后，方炼化成的法宝。形如火焰，发极纯正之深蓝光。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.青火:天山之南曾有一古庙，庙虽无人居住，每到入夜子时却总有龙吟之声发出。后一修真高人在此庙中避雨，偶然发现佛像座底压着一铁盒，盒内有一发紫蓝光之物。此物原乃天界宫廷中的一墨石，不知何因落在修真界里。遂其将此石用真火煅烧，取石之灵气凝炼成法宝青火。 </t>
+  </si>
+  <si>
+    <t>51.黑火:原是幽冥界地府深处的地脉之火，在第一次神魔大战时，幽冥地府受各神魔所发的法气所撼，设下的法界被震动，深埋地底的地脉之火趁机流出。此火威力极大，寻常之物遇之即刻化为灰烬。所幸，灵尊有一宝囊，能纳万物，不惧水火。遂将此火收服，后灵尊加以炼化，形如一团蓝紫火焰.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.墨火:万佛山下的善见河内，曾禁锢一能口喷烈火的神龟，通体墨绿，此神龟原是东海龙宫公主之宠物，后受妖物魔化，性凶残暴戾，便把其压禁在善见河内，以善见河水洗其魔性。经日久洗涤，仍无法灭其魔性，后此龟被雷火轰死。其体内所含之珠，被一修真高人得之并加以炼化成一发蓝光法宝——墨火。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.心火:相传，当年日神一派教祖心眼禅师，心脉受梵火之炙烧，其血亦凝结成一块异宝。后此宝被其师弟加以纯阳真火炼成法宝心火，形如燃烧的火焰，呈粉红黄光，留予心眼禅师门下弟子使用。此法宝因具火之烈性，遂有较强的攻击力。可供各门派弟子使用。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.北极火:多年前，万载烛阴龙破冰而出之时，亦有一块幽蓝冰石自破裂处飞溅而来。一日神弟子遇此石，好奇触之，不想以其金刚之躯，竟被此石灼伤整条胳臂。后有修为高深之日神将此石炼制成小法宝，称为“北极火”。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.龙夕火:此法宝究竟何人炼制，已不可考。只知若能得到此宝，便可在危急时，唤醒法宝中沉睡的火龙，火龙大展神威，口喷毒火，助主战斗。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.三昧真火:相传，一次，太上老君在炼制仙丹时，因仙童打盹，使炉内炼丹之三昧真火流泄出来，虽及时发现，但仍使少许散落在凡界。后落在凡界的三昧真火被修真鼻祖太乙真君用法器收服，再经过太乙真君用自身真气提炼，遂将真火炼成一发火红光芒之法宝。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.纯阳真火:白眉真人曾一睡七千年，他在睡梦中度艮火罡风劫时曾感到全身被烈火所炙，后以纯阳之气抵抗，方感舒缓。醒后便想起梦中所见，遂集自身纯阳之气，配以产于天脉火山的火相石炼化出法宝纯阳真火。此法宝其形如正怒燃的火焰，焰光逼人，呈金红色。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.龙王甲:传言龙宫有两样神奇的法宝，一为龙王镜，一为龙王甲。前者为龙王赠与幼女防身之宝，后者则为龙王自己所佩。据传龙王甲乃龙后生前历七年七月七日制成，佩于身上，可唤神盾护体，若遇来犯，必将其伤害返还来犯之人。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.天王甲:兵甲天官偶于自己的造甲工具间。发现一小块金光闪烁的甲片，识得乃天庭四大天王战甲上之碎片。于是取甲上神力，将其炼化成“天王甲”。可唤神盾护体。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.紫薇天庭甲:白眉一梦千年，梦中与紫薇星君同游太虚幻境，相谈甚欢。临别之时，紫薇星君以腰间小环相赠，是为“紫薇天庭甲”。白眉醒后，此宝正佩挂于自己腰间。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.渔神网:天水河畔曾有一闲散修真高人，此高人生性酷喜食鱼，每日无所是事，游荡至天水河边，撒下一张渔网，自己盘膝岸上，口念真诀，片刻后，大喝一声“起”，渔网便兜着几十条银鳞大鱼飞至岸上草丛间。此高人自其间捡得一两尾稍大者，其余俱都放生回河中。忽一日，此高人不知何故，心情抑郁，将渔网洒于江中后，便呆呆望着河水恍惚失神，良久，叹息一声，转身离去，从此消失无踪，此鱼神网便遗留在天水河中，后亦不知流落何处。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.盖天网:妖魔道中，曾出现一只300年修为的狐精。此狐狡诈聪明，可惜聪明反被聪明误，竟企图潜入芷云宫，盗取期间宝物，被月神重创，逃回洞穴。然其他妖魔无以为其盗得之宝，意欲独享，装病不出，几番争执，几乎反目。狐精一气之下，拼却300年修为和仅剩的几许真元炼成一张盖天网，布于洞穴之外，阻止外人接近，自己躲于洞穴之中，安然就死。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.困龙网:万载烛阴龙藏身于冰雪之下，行动自如，神出鬼没，难以应付。为此，心眼禅师特炼此法宝，可于冰上布下结界，逼使万载烛阴龙现身，故而命名为“困龙网”。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.共工网:相传上古洪荒，妖孽作乱。水神共工取天经地纬织就共工网，在各地江河湖泊布下阵法结界，将所有河精水怪逼出原型，一网打尽。后此法宝几经流传，不知流落何方。。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.布海网 :上古神魔之战，妖孽见不敌众神灵，便藏匿于深海之中，伺机再起。于是众神灵请水神共工再次织就一张比共工网更加巨大之网，置于海上，共工亲自施法布阵，令藏匿于海中的妖孽一一现身受戮，天地方得安宁。此巨网法宝便被命名为“布海网”。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.风火靴:“风火靴”亦为盗宝异士所炼。一旦发生危机，需紧急逃跑之时，便施展此宝，化成靴子踩于脚下，靴上之火便望风而长，熊熊燃起，连靴带人便如离弦之箭飞射而去。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.行云靴:相传有一修真高人，独自于崖顶炼制自己的得意法器。忽然天边一朵红云歪歪扭扭，向自己和身旁的炼炉冲来，其势凶猛，修真高人一惊之下，不及躲闪，被冲了个七荤八素，金星直冒。原来是个莽撞的仙人酒后架云，一时重心不稳，摔将下来。在看那红云，竟直接撞入炼炉内，犹自挣扎不已，将原先炼化之器尽数毁坏。醉酒仙人为表达歉意，便将这可怜的红云炼制成可神行千里的法宝“行云靴”赠与他，作为赔偿。。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.渡海靴:相传此法宝可助佩带者神行千里，甚至有功力高深者，甚至可神行渡海，故而名为“渡海靴”。 </t>
+  </si>
+  <si>
+    <t>69.紫金瓶:此紫金瓶内可自产紫金粉，一旦佩带者的肉身不慎毁坏，便可以此紫金粉重新塑造肉身.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.仙精瓶:此法宝为圣姑采仙山福地之灵水炼制而成，名为“仙精瓶”，佩戴此法宝者，如同神魂护体，可再造已被毁坏的肉身。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.碧靖瓶:相传有一名为碧靖的女子，为了拯救濒死的恋人，以自身为炼炉，将自己炼化为仙瓶，是为“碧靖瓶”。佩戴此法宝者，如同神魂护体，可再造已被毁坏的肉身。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.夜神衣:此法宝原是盗宝异士世代相传之宝，据说曾有一盗宝鼻祖艺高胆大，竟盗去了路过的夜神之衣角，并将此炼制成法宝，命名为“夜神衣”。此宝可令佩带者隐藏形迹，于神鬼不知中盗得宝贝，成为盗宝者竞相争夺的宝贝。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.无缝天衣:相传曾有一女修真者，独自于深山之中修行。但由于其貌美异常，引来无数慕名的登徒子，女修真者深感其饶，于是凭借自己的匠心巧手，炼制出“无缝天衣”，披于身上。从此以后，便再也无人见过她的容貌了。只因此法宝可令人隐形，让他人无法察觉。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.黑羽衣:南有巨鸟，大而无声，夜出觅食，如同夜幕，近鸟兽人鬼，皆不觉。有异派修真高人自深海崖上寻得此鸟，取其羽炼制成小法宝“黑羽衣”，佩于身上，能隐形，让他人无法察觉。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.火酒:一日，兵甲天官欲将一块难得的炎铁炼制成一把纯阳利剑，不料醉眼惺忪中，误炼为一个小酒葫芦。无奈之下，灵机一动，便将错就错，将其炼制为小法宝，名为“火酒”。佩于身上，可唤神力相助，火劲猛烈。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.巨灵神酒:众所周知，兵甲天官十分好酒。他被贬下凡之日，其天庭朋友巨灵神便将此酒葫芦赠与他。于酒葫芦中装入纯净露水，就会变成香醇美酒，称为“巨灵神酒”。将此法宝佩戴于身上，可唤神力相助，瞬间爆发无穷威力。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.独龙锁:此法宝原为芷云宫所有，看似精巧龙形小锁，可唤出独角青龙，将对手牢牢缠住，使其如陷泥潭，动弹困难。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.魍魉锁:此法宝为一魔道妖人所炼。为炼此宝，此妖人走遍各界，网罗来大量游魂怨鬼、魑魅魍魉，将其鬼魅之力吸纳入法宝中。战斗时，此法宝便可唤出地底下的众鬼灵，纠缠住对手，使其如陷泥潭，动弹困难。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.鬼头锁:以地府恶鬼的骷髅头颅炼制而成的凶戾法宝，名为“鬼头锁”。此法宝上带鬼厉之气，施法-之后可令对手如陷泥潭，难以动弹。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.捆仙锁:顾名思义，此法宝乃魔道修炼，专为对付正道修真者。捆仙锁形似小巧金锁，施展之后，便可望风而长，变成刀剑不惧的金绳捆住对手，且愈是挣扎便捆得愈紧，使人难以脱身。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.雨灵伞:自圣姑入得修真界，魔道似乎感觉到巨大的危机，便时常前去圣姑的故乡，施以妖力，兴风作浪，残害当地生灵百姓。一日，妖魔再度前来，欲大展手脚，试试自己方练成的魔功。却见自己无论如何施法，都不见效。原来圣姑得知家乡有难，心中大急，求来雨师之灵水，炼制而成雨灵伞，暗中交给当地土地神，以佑一方生灵。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.无象铃:此铃原本供奉于佛前，年深日久后，竟自具灵力。将其佩戴在身上，战斗时，其神佛之力可使妖魔耳目不明，眩晕不止。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.无心铃:据传在万佛山善见林一带，时常传来一阵奇异的“叮铃”之声，闻者莫不耳目失聪，恶心眩晕，难受异常。故而常人不敢近。原来此铃名为“无心铃”，乃鹿仙一族世代相传之宝，用以阻止外人进入善见林。后来鹿仙一族分裂，堕落的鹿仙偷去此铃，往南而逃，使得此铃流落他方。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.踱踱铃:曾有一名日神弟子，天生聪颖，年纪轻轻，便将寺中经书尽数阅遍。然其求道之心依然不减，便向大藏禅师拜别，愿往天地四方云游求知。大藏准许了他的请求，并将跟随自己多年的法宝踱踱铃赠与他，助他一路上防身之用。轻轻摇动此法宝，可发出奇异空洞的铃声，使人耳目不明，眩晕不止。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.摄心法眼:相传700年前，有一妖异高僧，高额方脸，有三目，现身于修真界后不久，便凭其摄心大法伤了不少修真高手的性命。原来此僧将法宝摄心法眼藏于自己额间，与人缠斗时，便放出此宝，使对手见种种可怖幻象，胆怯失勇，无法施展任何法术，从而轻松取胜。 </t>
+  </si>
+  <si>
+    <t>86.天王怒目:　此法宝与摄心法眼虽一正一邪，却有异曲同工之处。摄心法眼使人见恐怖幻象而胆怯失勇，天王怒目法宝则自带天王威仪，一经施展，使人如见天王怒容，天地俱暗，不由心惊胆寒，手足具软，无力再战。</t>
   </si>
 </sst>
 </file>
@@ -573,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -789,26 +1046,447 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:B86"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B62" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B64" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B65" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B68" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B69" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B70" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B71" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B72" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B73" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B74" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B75" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B76" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B77" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B78" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B79" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B80" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B83" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B84" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B85" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B86" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/法宝设计.xlsx
+++ b/doc/法宝设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="法宝能力" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>费用相关</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -457,6 +457,46 @@
   </si>
   <si>
     <t>86.天王怒目:　此法宝与摄心法眼虽一正一邪，却有异曲同工之处。摄心法眼使人见恐怖幻象而胆怯失勇，天王怒目法宝则自带天王威仪，一经施展，使人如见天王怒容，天地俱暗，不由心惊胆寒，手足具软，无力再战。</t>
+  </si>
+  <si>
+    <t>相同的法宝最多可以获得两件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手牌上限提高3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每抽20张牌，获得1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千机灵符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天音逆火环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1回合内使用卡牌造成7次伤害，获得1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每场战斗开始前，选择一张卡牌，复制该牌并放入抽牌堆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百变黏土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一回合内打出5张牌，获得8点护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -830,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:M49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -865,6 +905,9 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
+      <c r="M5" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
@@ -928,6 +971,28 @@
         <v>8</v>
       </c>
     </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" t="s">
+        <v>140</v>
+      </c>
+      <c r="L14" t="s">
+        <v>136</v>
+      </c>
+    </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>2</v>
@@ -941,6 +1006,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" t="s">
+        <v>141</v>
+      </c>
+    </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
         <v>3</v>
@@ -960,6 +1033,11 @@
       </c>
       <c r="C27" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.15">
@@ -1048,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/法宝设计.xlsx
+++ b/doc/法宝设计.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>费用相关</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,10 +157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可以在战斗中逃走（限次数，使用后有负面debuff）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>乾坤袋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -496,6 +492,26 @@
   </si>
   <si>
     <t>一回合内打出5张牌，获得8点护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每三场战斗，在战斗结束时回复点15生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在战斗中逃走（限次数，使用后有负面debuff，无法在BOSS战使用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神行宝珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以提前查看？及怪物的情报</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -868,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:M49"/>
+  <dimension ref="B3:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -900,13 +916,13 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="M5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
@@ -957,15 +973,15 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" t="s">
         <v>42</v>
-      </c>
-      <c r="M11" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -973,53 +989,59 @@
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" t="s">
         <v>139</v>
       </c>
-      <c r="C14" t="s">
-        <v>140</v>
-      </c>
       <c r="L14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="L18" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+      <c r="L19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>35</v>
       </c>
@@ -1027,7 +1049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>14</v>
       </c>
@@ -1035,17 +1057,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C28" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>32</v>
       </c>
@@ -1086,18 +1108,18 @@
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.15">
@@ -1107,12 +1129,20 @@
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C48" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C49" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1134,432 +1164,432 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B79" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B84" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B86" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/doc/法宝设计.xlsx
+++ b/doc/法宝设计.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
   <si>
     <t>费用相关</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -512,6 +512,42 @@
   </si>
   <si>
     <t>可以提前查看？及怪物的情报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌附魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定一张牌，给予轮回效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定一张牌，给予固有效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业专属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开局获得3把幻剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命回复的效果提升50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗结束未选择的卡牌，还会在下场战斗选牌时出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每造成一次不被格挡的伤害，获得一把幻剑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,7 +581,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -555,6 +591,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,11 +615,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -886,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -994,9 +1039,6 @@
       <c r="C13" t="s">
         <v>136</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
@@ -1005,14 +1047,14 @@
       <c r="C14" t="s">
         <v>139</v>
       </c>
-      <c r="L14" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="L17" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
@@ -1021,8 +1063,8 @@
       <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>143</v>
+      <c r="L18" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.15">
@@ -1032,8 +1074,25 @@
       <c r="C19" t="s">
         <v>140</v>
       </c>
-      <c r="L19" t="s">
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L22" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L23" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L24" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.15">
@@ -1048,6 +1107,9 @@
       <c r="C26" t="s">
         <v>10</v>
       </c>
+      <c r="L26" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
@@ -1056,11 +1118,17 @@
       <c r="C27" t="s">
         <v>15</v>
       </c>
+      <c r="L27" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C28" t="s">
         <v>142</v>
       </c>
+      <c r="L28" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
@@ -1074,13 +1142,29 @@
       <c r="C32" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="L32" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L33" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L34" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="L35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>21</v>
       </c>
@@ -1088,7 +1172,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>23</v>
       </c>
@@ -1096,17 +1180,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C44" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>43</v>
       </c>
@@ -1114,7 +1198,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
         <v>45</v>
       </c>
@@ -1122,12 +1206,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C47" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C48" t="s">
         <v>145</v>
       </c>
